--- a/pesquisa.xlsx
+++ b/pesquisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anvisabr.sharepoint.com/sites/EquipeOuvidoria-Anvisa/Arquivos/Qualidade da resposta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21ABB18-4D79-41F5-AA3B-3F7C739134B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2DF613B-7986-4238-ADCC-AF233A9BDF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2475" yWindow="735" windowWidth="23700" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="1345">
   <si>
     <t>Tipo de Manifestação</t>
   </si>
@@ -4503,6 +4503,9 @@
   </si>
   <si>
     <t>Muito rápido o atendimento da ouvidoria, excelente!! Obrigado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>25072.038360/2025-28</t>
@@ -7577,6 +7580,84 @@
     <t xml:space="preserve">Então, faltou informar, se a ANVISA poderá analisar a caixa do Cymbi que comprei e provar que este medicamento é ineficaz. </t>
   </si>
   <si>
+    <t xml:space="preserve">
+Certidões e Declarações</t>
+  </si>
+  <si>
+    <t>25072.056777/2025-72</t>
+  </si>
+  <si>
+    <t>Interessado (CPF 394.652.758-24) formulou via GOV.BR pedido de CIVP - Febre Amarela (Protocolo 036687.9172036/2025), porém ao fazer upload da carteira de vacinação, percebeu que forneceu o documento errado. Ao tentar fazer nova solicitação, o sistema gerou impedimento por haver protocolo em aberto. O sistema não me permite cancelar o protocolo existente para abrir um novo, e nem emendar o protocolo já existente subindo documentação complementar correta. Em contato telefônico (Protocolo 2025272480), o atendimento foi muito cordial e claro (nenhuma crítica quanto a quem atendeu), contudo fui informado de que não existiria meio de cancelar o protocolo feito com erro. Isso me imporia aguardar o trâmite do primeiro processo (cujo indeferimento poderá ocorrer pois não está com a documentação adequada), para só então poder abrir o segundo. Estamos com um convite para uma viagem de última hora (desistência de outra pessoa) e preciso deste documento até sexta, com o risco de não conseguir contornar o problema em virtude da trava no sistema. Seria importante que o sistema permitisse a solicitação de cancelamento pelo Requerente, ou então a possibilidade de subida de documentos complementares, se ainda não houve análise pela Agência. Anoto que me vejo também sem saída por não poder emitir o documento no aeroporto ou em nenhuma unidade física, de acordo com as informações que recebi. Encaminho a cópia do protocolo, o documento anexado por engano e o documento que deveria ter sido anexado, para eventuais providências, solicitando ainda, se possível, dada a urgência, que seja comunicado o setor responsável sobre o ocorrido, com a documentação anexada neste sistema, ou então que façam a baixa o quanto antes para que novo protocolo possa ser aberto com a documentação retificada.</t>
+  </si>
+  <si>
+    <t>Prezado(a),
+Informamos que o Certificado Internacional de Vacinação ou Profilaxia (CIVP) para febre amarela foi emitido.
+O certificado fica disponível em sua conta do Portal de Serviços. Acesse a página https://solicitacao.servicos.gov.br/processos/ e, na aba "Minhas solicitações", clique no ícone _x001C_Responder_x001D_ ao lado do mencionado protocolo, para imprimir o CIVP. O Certificado deve ser impresso em folha A4 e assinado no campo "Cuja assinatura segue". Sempre que for necessário reimprimir o CIVP, basta acessar o Portal de Serviços, na página https://solicitacao.servicos.gov.br/processos/, e, na aba "Minhas solicitações", com a chave virada para _x001C_Concluídas_x001D_, clique no ícone _x001C_Ver_x001D_ ao lado do mencionado protocolo.
+Colocamo-nos à disposição para demais esclarecimentos que se façam necessários.
+Atenciosamente,
+Agência Nacional de Vigilância Sanitária (Anvisa)</t>
+  </si>
+  <si>
+    <t>Prezados, apesar do impasse envolvendo o sistema, quem deu causa ao problema originariamente fui eu mesmo. Esta ANVISA foi extremamente rápida em auxiliar-me com a solução. Agradeço por demais a presteza na solução da questão e parabenizo por toda a cordialidade dos atendentes deste órgão. Desejo a todos uma excelente semana.</t>
+  </si>
+  <si>
+    <t>25072.048140/2025-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prezados,
+No dia 06/08/2025, foi arquivada na JUCESP a alteração contratual da empresa BEV DROGARIA E PERFUMARIA LTDA, envolvendo a troca completa do quadro societário, incluindo o responsável legal e o responsável técnico da drogaria.
+Após essa alteração, realizamos os protocolos necessários junto aos órgãos competentes, inclusive junto à ANVISA. No entanto, não estamos conseguindo acessar o sistema SNGPC, essencial para o controle e inventário de medicamentos sujeitos a controle especial.
+O responsável técnico anterior finalizou o inventário, conforme exigido, mas não conseguimos prosseguir com o novo cadastro. O nome do novo responsável técnico, Bruno Elias da Costa, não aparece para associação no sistema, impossibilitando o acesso e a continuidade das atividades regulatórias.
+Entramos em contato com o atendimento da ANVISA (Protocolo de Atendimento: 2025225634) e seguimos a orientação de acessar o sistema de Cadastro de Empresas para excluir os usuários antigos e cadastrar os novos. O procedimento foi realizado conforme instruções, mas o problema persiste: o novo RT não aparece para associação no SNGPC.
+Já aguardamos por um período considerável, sem retorno ou solução. Reforçamos que o farmacêutico responsável tem total intenção de manter o registro regular e em conformidade com as normas da ANVISA.
+Solicitamos, portanto, suporte técnico ou intervenção da ANVISA para que o novo responsável técnico possa ser corretamente associado à empresa no sistema SNGPC, permitindo o envio de inventário e movimentações conforme exigido pela legislação vigente (Portaria SVS/MS nº 344/1998 e RDC nº 22/2014).
+Agradecemos desde já pela atenção e aguardamos retorno urgente, visto que a situação está impactando diretamente a operação regular da drogaria.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prezado(a) Senhor(a),
+Informamos que o Sr. Bruno não aparece no SNGPC para indicação porque ele não possui CRF cadastrado.
+Pedimos que acesse o cadastro do RT na lista de responsáveis técnicos da empresa no sistema de Cadastramento de Empresas (https://www9.anvisa.gov.br/recadastramento) e cadastre o CRF do usuário.
+O sistema não exibirá tela de confirmação de inserção dos dados nem voltará para a tela inicial, mas gravará as informações.
+Caso não consiga, nos informe os dados do CRF para que possamos incluí-lo no sistema:
+- Número
+- UF
+- Data de expedição
+Atenciosamente,
+Cadastro de Sistemas
+Coordenação de Gestão da Transparência e Acesso à Informação – CGTAI
+</t>
+  </si>
+  <si>
+    <t>Não conseguimos pelo portal.
+Número
+122989
+Uf
+Sp
+Exp
+02/09/2025</t>
+  </si>
+  <si>
+    <t>25072.026679/2025-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submetemos uma documentação à CRCOS/GGCOS/DIRE3/ANVISA em 12/03/25 com Protocolo nº 2025072128. Porém a resposta que recebemos ao Protocolo não atende ao que foi pleiteado pela empresa. Foi aberta uma solicitação no Fala BR a respeito, nº 25072.019495/2025-94 e a resposta também não atende ao que foi pleiteado pela empresa. Foi enviada uma documentação para análise com objetivo de AMPLIAR AS FUNÇÕES COSMÉTICAS para a substância Polioxoniobato de Metileno. A substância já se encontra cadastrada no sistema com 5 funções. Com os estudos realizados e apresentados, solicitamos inclusão de novas funções para a substância cadastrada. De acordo com a RDC Anvisa 743 de 10 de agosto de 2022, o prazo para análise de inclusão de função seria de 30 dias. Já se passaram mais de 60 dias e a ampliação das funções não foi disponibilizada no sistema Solicita da Anvisa. Pedimos providências para que possamos seguir com os projetos da empresa. Obrigado. Solicitamos a avaliação da documentação com objetivo de ampliar as funções da substância Polioxoniobato de Metileno no sistema Solicita da Anvisa. Abrimos também novo Protocolo no Fale Conosco da Anvisa a respeito 2025072128. AÇÃO PLEITEADA É DE AMPLIAÇÃO DA FUNÇÃO COSMETICA DA SUBSTÂNCIA CADASTRADA POLIOXONIOBATO DE METILENO. Obrigado
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prezado(a),
+Primeiramente pedimos desculpas se as respostas enviadas via Fala.BR não sanaram suas necessidades.
+Considerando que seu pleito trata-se de uma solicitação de inclusão de várias novas funções, informamos que é necessária avaliação de toda a documentação apresentada, bem como de estudos científicos e da legislação sanitária. Esse processo é essencial para garantir a qualidade e a segurança dos produtos comercializados.
+Dado o prazo já transcorrido desde seu primeiro pedido, informamos que seu pleito está em tratamento de forma prioritária pela nossa equipe técnica e em breve a análise será concluída.
+Agradecemos à compreensão, e nos mantemos à disposição.
+Atenciosamente,
+Gerência-Geral de Cosméticos e Saneantes – GGCOS
+</t>
+  </si>
+  <si>
+    <t>Em 30/06/25 a ANVISA respondeu que o meu pedido seria analisado de forma prioritária e passaram-se mais de 4 meses e seguimos sem uma resposta da Agência. As novas funções para o ingrediente não foram avaliadas e adicionadas ao sistema de peticionamento de cosméticos. Reitero a importância da inclusão das funções para a substância afim de que a empresa possa seguir com seus projetos. Obrigado. Samuel Campos Oliveira</t>
+  </si>
+  <si>
     <t>25072.055536/2025-14</t>
   </si>
   <si>
@@ -7605,7 +7686,7 @@
     <t>Prezado(a) Senhor(a),
 Informamos que a remessa 884549465475 foi liberada pela ANVISA em 07/11/2025, entretanto, está retida pela Receita Federal do Brasil.
 Atenciosamente,
-Gerência de Controle Sanitário de Produtos e Empresas em Portos, Aeroportos, Fronteiras e Recintos Alfandegados _x0013_ GCPAF/PAFRE</t>
+Gerência de Controle Sanitário de Produtos e Empresas em Portos, Aeroportos, Fronteiras e Recintos Alfandegados  GCPAF/PAFRE</t>
   </si>
   <si>
     <t>A resposta do órgão é falsa. A remessa não foi liberada. A remessa foi devolvida à origem, conforme as advertências do órgão e o respectivo rastreio.</t>
@@ -7684,34 +7765,41 @@
 Solicito formalmente que o órgão reavalie esta manifestação, pois a liberação da carga não garante a segurança e a eficácia do produto para o consumidor final, visto que a transportadora não consegue comprovar que a RDC 430/2020 foi cumprida. É imperativo que a manifestação seja reaberta para que o órgão informe qual documentação foi aceita para comprovar a integridade da temperatura.</t>
   </si>
   <si>
-    <t>25072.026679/2025-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submetemos uma documentação à CRCOS/GGCOS/DIRE3/ANVISA em 12/03/25 com Protocolo nº 2025072128. Porém a resposta que recebemos ao Protocolo não atende ao que foi pleiteado pela empresa. Foi aberta uma solicitação no Fala BR a respeito, nº 25072.019495/2025-94 e a resposta também não atende ao que foi pleiteado pela empresa. Foi enviada uma documentação para análise com objetivo de AMPLIAR AS FUNÇÕES COSMÉTICAS para a substância Polioxoniobato de Metileno. A substância já se encontra cadastrada no sistema com 5 funções. Com os estudos realizados e apresentados, solicitamos inclusão de novas funções para a substância cadastrada. De acordo com a RDC Anvisa 743 de 10 de agosto de 2022, o prazo para análise de inclusão de função seria de 30 dias. Já se passaram mais de 60 dias e a ampliação das funções não foi disponibilizada no sistema Solicita da Anvisa. Pedimos providências para que possamos seguir com os projetos da empresa. Obrigado. Solicitamos a avaliação da documentação com objetivo de ampliar as funções da substância Polioxoniobato de Metileno no sistema Solicita da Anvisa. Abrimos também novo Protocolo no Fale Conosco da Anvisa a respeito 2025072128. AÇÃO PLEITEADA É DE AMPLIAÇÃO DA FUNÇÃO COSMETICA DA SUBSTÂNCIA CADASTRADA POLIOXONIOBATO DE METILENO. Obrigado
+    <t>25072.057233/2025-28</t>
+  </si>
+  <si>
+    <t>Bom dia, tudo bem?
+Gostaria de apoio com uma situação, pois tenho uma viagem inesperada e identifiquei a necessidade de emissão do CIVP. Conforme indicado nas bases de conhecimento, abri o protocolo 036687.9181493/2025 pelo gov, visto que, apesar de já ter sido vacinada para Febre Amarela em 2017, o certificado ainda não consta no aplicativo Meu SUS.
+No entanto, percebi que havia enviado apenas o verso do meu cartão de vacinação e no atendimento webchat da Anvisa foi informado não ser possível adicionar novas informações em solicitação já enviada. Diante da urgência dos prazos, receio não possuir tempo hábil para receber o resultado da análise e em seguida precisar criar outro protocolo. Minha viagem está marcada para 19/11/2025. Poderiam me apoiar com essa situação? Agradeço a atenção desde já!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agradeço pelo atendimento realizado com celeridade e empatia! </t>
+  </si>
+  <si>
+    <t>25072.056875/2025-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boa tarde. Entrei com uma solicitacao de CIVP, mas ate o momento nao recebi o Documento solicitado atraves deste portal. O numero do protocolo é 036687.9164448/2025. Tenho receio de perder minha viagem que sera na madrugada do dia 17 de Novembro. Sou idoso e gostaria de receber ajuda para emissao emergencial do CIVP - fui instruido a mandar uma solicitacao atraves desse formulario. Por favor, me ajudem. Em anexo, comprovante de viagem e cartao original da vacina. Meu CPF 099.632.276-00 - Obrigado desde ja. Meu telefone é 51-995758765 e email adalberto1944@yahoo.com.br (ou felipelehn@gmail.com)
 </t>
   </si>
   <si>
     <t xml:space="preserve">Prezado(a),
-Primeiramente pedimos desculpas se as respostas enviadas via Fala.BR não sanaram suas necessidades.
-Considerando que seu pleito trata-se de uma solicitação de inclusão de várias novas funções, informamos que é necessária avaliação de toda a documentação apresentada, bem como de estudos científicos e da legislação sanitária. Esse processo é essencial para garantir a qualidade e a segurança dos produtos comercializados.
-Dado o prazo já transcorrido desde seu primeiro pedido, informamos que seu pleito está em tratamento de forma prioritária pela nossa equipe técnica e em breve a análise será concluída.
-Agradecemos à compreensão, e nos mantemos à disposição.
-Atenciosamente,
-Gerência-Geral de Cosméticos e Saneantes – GGCOS
+Informamos que o Certificado Internacional de Vacinação ou Profilaxia (CIVP) para febre amarela foi emitido.
+O certificado fica disponível em sua conta do Portal de Serviços. Acesse a página https://solicitacao.servicos.gov.br/processos/ e, na aba "Minhas solicitações", clique no ícone _x001C_Responder_x001D_ ao lado do mencionado protocolo, para imprimir o CIVP. O Certificado deve ser impresso em folha A4 e assinado no campo "Cuja assinatura segue". Sempre que for necessário reimprimir o CIVP, basta acessar o Portal de Serviços, na página https://solicitacao.servicos.gov.br/processos/, e, na aba "Minhas solicitações", com a chave virada para _x001C_Concluídas_x001D_, clique no ícone _x001C_Ver_x001D_ ao lado do mencionado protocolo.
+Colocamo-nos à disposição para demais esclarecimentos que se façam necessários.
+Atenciosamente,
+Agência Nacional de Vigilância Sanitária (Anvisa)
 </t>
   </si>
   <si>
-    <t>Em 30/06/25 a ANVISA respondeu que o meu pedido seria analisado de forma prioritária e passaram-se mais de 4 meses e seguimos sem uma resposta da Agência. As novas funções para o ingrediente não foram avaliadas e adicionadas ao sistema de peticionamento de cosméticos. Reitero a importância da inclusão das funções para a substância afim de que a empresa possa seguir com seus projetos. Obrigado. Samuel Campos Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Certidões e Declarações</t>
-  </si>
-  <si>
-    <t>25072.056777/2025-72</t>
-  </si>
-  <si>
-    <t>Interessado (CPF 394.652.758-24) formulou via GOV.BR pedido de CIVP - Febre Amarela (Protocolo 036687.9172036/2025), porém ao fazer upload da carteira de vacinação, percebeu que forneceu o documento errado. Ao tentar fazer nova solicitação, o sistema gerou impedimento por haver protocolo em aberto. O sistema não me permite cancelar o protocolo existente para abrir um novo, e nem emendar o protocolo já existente subindo documentação complementar correta. Em contato telefônico (Protocolo 2025272480), o atendimento foi muito cordial e claro (nenhuma crítica quanto a quem atendeu), contudo fui informado de que não existiria meio de cancelar o protocolo feito com erro. Isso me imporia aguardar o trâmite do primeiro processo (cujo indeferimento poderá ocorrer pois não está com a documentação adequada), para só então poder abrir o segundo. Estamos com um convite para uma viagem de última hora (desistência de outra pessoa) e preciso deste documento até sexta, com o risco de não conseguir contornar o problema em virtude da trava no sistema. Seria importante que o sistema permitisse a solicitação de cancelamento pelo Requerente, ou então a possibilidade de subida de documentos complementares, se ainda não houve análise pela Agência. Anoto que me vejo também sem saída por não poder emitir o documento no aeroporto ou em nenhuma unidade física, de acordo com as informações que recebi. Encaminho a cópia do protocolo, o documento anexado por engano e o documento que deveria ter sido anexado, para eventuais providências, solicitando ainda, se possível, dada a urgência, que seja comunicado o setor responsável sobre o ocorrido, com a documentação anexada neste sistema, ou então que façam a baixa o quanto antes para que novo protocolo possa ser aberto com a documentação retificada.</t>
+    <t>Muito Obrigado por toda a ajuda - fiquei muito surpreendido com o maravilhoso atendimento prestado.</t>
+  </si>
+  <si>
+    <t>25072.056924/2025-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boa tarde. Entrei com uma solicitacao de CIVP, mas ate o momento nao recebi o Documento solicitado atraves deste portal. O numero do protocolo é 036687.9164448/2025. Tenho receio de perder minha viagem que sera na madrugada do dia 17 de Novembro. Acabo de identificar que usei informacoes de um cartao de vacinas meu velho, nao o atual. Sou idoso e gostaria de receber ajuda para emissao emergencial do CIVP - fui instruido a mandar uma solicitacao atraves desse formulario. Por favor, me ajudem. Em anexo, comprovante de viagem e cartao da vacina da febre Amarela correto. Meu CPF 099.632.276-00 - Obrigado desde ja. Meu telefone é 51-995758765 e email adalberto1944@yahoo.com.br (ou felipelehn@gmail.com)
+</t>
   </si>
   <si>
     <t>Prezado(a),
@@ -7720,46 +7808,6 @@
 Colocamo-nos à disposição para demais esclarecimentos que se façam necessários.
 Atenciosamente,
 Agência Nacional de Vigilância Sanitária (Anvisa)</t>
-  </si>
-  <si>
-    <t>Prezados, apesar do impasse envolvendo o sistema, quem deu causa ao problema originariamente fui eu mesmo. Esta ANVISA foi extremamente rápida em auxiliar-me com a solução. Agradeço por demais a presteza na solução da questão e parabenizo por toda a cordialidade dos atendentes deste órgão. Desejo a todos uma excelente semana.</t>
-  </si>
-  <si>
-    <t>25072.048140/2025-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prezados,
-No dia 06/08/2025, foi arquivada na JUCESP a alteração contratual da empresa BEV DROGARIA E PERFUMARIA LTDA, envolvendo a troca completa do quadro societário, incluindo o responsável legal e o responsável técnico da drogaria.
-Após essa alteração, realizamos os protocolos necessários junto aos órgãos competentes, inclusive junto à ANVISA. No entanto, não estamos conseguindo acessar o sistema SNGPC, essencial para o controle e inventário de medicamentos sujeitos a controle especial.
-O responsável técnico anterior finalizou o inventário, conforme exigido, mas não conseguimos prosseguir com o novo cadastro. O nome do novo responsável técnico, Bruno Elias da Costa, não aparece para associação no sistema, impossibilitando o acesso e a continuidade das atividades regulatórias.
-Entramos em contato com o atendimento da ANVISA (Protocolo de Atendimento: 2025225634) e seguimos a orientação de acessar o sistema de Cadastro de Empresas para excluir os usuários antigos e cadastrar os novos. O procedimento foi realizado conforme instruções, mas o problema persiste: o novo RT não aparece para associação no SNGPC.
-Já aguardamos por um período considerável, sem retorno ou solução. Reforçamos que o farmacêutico responsável tem total intenção de manter o registro regular e em conformidade com as normas da ANVISA.
-Solicitamos, portanto, suporte técnico ou intervenção da ANVISA para que o novo responsável técnico possa ser corretamente associado à empresa no sistema SNGPC, permitindo o envio de inventário e movimentações conforme exigido pela legislação vigente (Portaria SVS/MS nº 344/1998 e RDC nº 22/2014).
-Agradecemos desde já pela atenção e aguardamos retorno urgente, visto que a situação está impactando diretamente a operação regular da drogaria.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prezado(a) Senhor(a),
-Informamos que o Sr. Bruno não aparece no SNGPC para indicação porque ele não possui CRF cadastrado.
-Pedimos que acesse o cadastro do RT na lista de responsáveis técnicos da empresa no sistema de Cadastramento de Empresas (https://www9.anvisa.gov.br/recadastramento) e cadastre o CRF do usuário.
-O sistema não exibirá tela de confirmação de inserção dos dados nem voltará para a tela inicial, mas gravará as informações.
-Caso não consiga, nos informe os dados do CRF para que possamos incluí-lo no sistema:
-- Número
-- UF
-- Data de expedição
-Atenciosamente,
-Cadastro de Sistemas
-Coordenação de Gestão da Transparência e Acesso à Informação – CGTAI
-</t>
-  </si>
-  <si>
-    <t>Não conseguimos pelo portal.
-Número
-122989
-Uf
-Sp
-Exp
-02/09/2025</t>
   </si>
   <si>
     <t>Link do PowerBI</t>
@@ -8288,12 +8336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P263"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O138" sqref="O138"/>
+      <pane ySplit="1" topLeftCell="I265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M266" sqref="M266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15310,7 +15357,7 @@
         <v>842</v>
       </c>
       <c r="O138" t="s">
-        <v>33</v>
+        <v>843</v>
       </c>
       <c r="P138" t="s">
         <v>82</v>
@@ -15350,22 +15397,22 @@
         <v>78</v>
       </c>
       <c r="K139" s="18" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N139" s="7" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O139" t="s">
         <v>40</v>
       </c>
       <c r="P139" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="409.6">
@@ -15399,22 +15446,22 @@
         <v>56</v>
       </c>
       <c r="K140" s="18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N140" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="O140" t="s">
         <v>610</v>
       </c>
       <c r="P140" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="409.6">
@@ -15451,16 +15498,16 @@
         <v>35</v>
       </c>
       <c r="K141" s="18" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N141" s="7" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="O141" t="s">
         <v>610</v>
@@ -15503,13 +15550,13 @@
         <v>78</v>
       </c>
       <c r="K142" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="O142" t="s">
         <v>33</v>
@@ -15526,7 +15573,7 @@
         <v>330</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D143" s="12">
         <f>INT(E143)</f>
@@ -15552,16 +15599,16 @@
         <v>56</v>
       </c>
       <c r="K143" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N143" s="7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O143" t="s">
         <v>610</v>
@@ -15604,16 +15651,16 @@
         <v>56</v>
       </c>
       <c r="K144" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O144" t="s">
         <v>610</v>
@@ -15630,7 +15677,7 @@
         <v>73</v>
       </c>
       <c r="C145" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D145" s="12">
         <f>INT(E145)</f>
@@ -15656,16 +15703,16 @@
         <v>78</v>
       </c>
       <c r="K145" s="18" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N145" s="7" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O145" t="s">
         <v>33</v>
@@ -15705,13 +15752,13 @@
         <v>78</v>
       </c>
       <c r="K146" s="18" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="O146" s="7" t="s">
         <v>33</v>
@@ -15754,13 +15801,13 @@
         <v>87</v>
       </c>
       <c r="K147" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="O147" s="7" t="s">
         <v>33</v>
@@ -15803,16 +15850,16 @@
         <v>56</v>
       </c>
       <c r="K148" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N148" s="7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="O148" s="7" t="s">
         <v>610</v>
@@ -15855,16 +15902,16 @@
         <v>56</v>
       </c>
       <c r="K149" s="18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N149" s="7" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="O149" s="7" t="s">
         <v>610</v>
@@ -15907,16 +15954,16 @@
         <v>23</v>
       </c>
       <c r="K150" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="N150" s="7" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O150" s="7" t="s">
         <v>33</v>
@@ -15959,13 +16006,13 @@
         <v>78</v>
       </c>
       <c r="K151" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="O151" s="7" t="s">
         <v>33</v>
@@ -16005,16 +16052,16 @@
         <v>87</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N152" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="O152" t="s">
         <v>752</v>
@@ -16057,22 +16104,22 @@
         <v>87</v>
       </c>
       <c r="K153" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N153" s="7" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O153" t="s">
         <v>33</v>
       </c>
       <c r="P153" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="409.6">
@@ -16109,13 +16156,13 @@
         <v>56</v>
       </c>
       <c r="K154" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="O154" t="s">
         <v>33</v>
@@ -16158,22 +16205,22 @@
         <v>56</v>
       </c>
       <c r="K155" s="18" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="O155" t="s">
         <v>610</v>
       </c>
       <c r="P155" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="409.6">
@@ -16210,16 +16257,16 @@
         <v>78</v>
       </c>
       <c r="K156" s="18" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="O156" t="s">
         <v>33</v>
@@ -16262,13 +16309,13 @@
         <v>87</v>
       </c>
       <c r="K157" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O157" t="s">
         <v>33</v>
@@ -16311,16 +16358,16 @@
         <v>56</v>
       </c>
       <c r="K158" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="O158" t="s">
         <v>610</v>
@@ -16363,16 +16410,16 @@
         <v>56</v>
       </c>
       <c r="K159" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="O159" t="s">
         <v>610</v>
@@ -16389,7 +16436,7 @@
         <v>17</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D160" s="12">
         <f>INT(E160)</f>
@@ -16415,16 +16462,16 @@
         <v>35</v>
       </c>
       <c r="K160" s="18" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O160" t="s">
         <v>33</v>
@@ -16467,13 +16514,13 @@
         <v>23</v>
       </c>
       <c r="K161" s="18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O161" s="7" t="s">
         <v>33</v>
@@ -16516,16 +16563,16 @@
         <v>87</v>
       </c>
       <c r="K162" s="18" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O162" t="s">
         <v>33</v>
@@ -16565,13 +16612,13 @@
         <v>87</v>
       </c>
       <c r="K163" s="18" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="O163" t="s">
         <v>33</v>
@@ -16588,7 +16635,7 @@
         <v>505</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D164" s="12">
         <f>INT(E164)</f>
@@ -16614,19 +16661,19 @@
         <v>87</v>
       </c>
       <c r="K164" s="18" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O164" t="s">
         <v>33</v>
       </c>
       <c r="P164" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="366">
@@ -16637,7 +16684,7 @@
         <v>505</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D165" s="12">
         <f>INT(E165)</f>
@@ -16663,19 +16710,19 @@
         <v>87</v>
       </c>
       <c r="K165" s="18" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="O165" t="s">
         <v>33</v>
       </c>
       <c r="P165" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="409.6">
@@ -16712,13 +16759,13 @@
         <v>78</v>
       </c>
       <c r="K166" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O166" t="s">
         <v>40</v>
@@ -16735,7 +16782,7 @@
         <v>330</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D167" s="12">
         <f>INT(E167)</f>
@@ -16761,13 +16808,13 @@
         <v>87</v>
       </c>
       <c r="K167" s="27" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O167" t="s">
         <v>40</v>
@@ -16784,7 +16831,7 @@
         <v>17</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D168" s="12">
         <f>INT(E168)</f>
@@ -16810,13 +16857,13 @@
         <v>23</v>
       </c>
       <c r="K168" s="27" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O168" t="s">
         <v>40</v>
@@ -16859,16 +16906,16 @@
         <v>56</v>
       </c>
       <c r="K169" s="28" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="N169" s="7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="O169" t="s">
         <v>40</v>
@@ -16911,16 +16958,16 @@
         <v>23</v>
       </c>
       <c r="K170" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N170" s="7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O170" t="s">
         <v>40</v>
@@ -16963,16 +17010,16 @@
         <v>56</v>
       </c>
       <c r="K171" s="27" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N171" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O171" t="s">
         <v>40</v>
@@ -17015,16 +17062,16 @@
         <v>56</v>
       </c>
       <c r="K172" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N172" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O172" t="s">
         <v>40</v>
@@ -17041,7 +17088,7 @@
         <v>73</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D173" s="12">
         <f>INT(E173)</f>
@@ -17067,16 +17114,16 @@
         <v>87</v>
       </c>
       <c r="K173" s="27" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N173" s="7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O173" t="s">
         <v>610</v>
@@ -17093,7 +17140,7 @@
         <v>17</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D174" s="12">
         <f>INT(E174)</f>
@@ -17119,19 +17166,19 @@
         <v>56</v>
       </c>
       <c r="K174" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O174" t="s">
         <v>40</v>
       </c>
       <c r="P174" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="409.6">
@@ -17168,16 +17215,16 @@
         <v>35</v>
       </c>
       <c r="K175" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N175" s="7" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O175" t="s">
         <v>752</v>
@@ -17194,7 +17241,7 @@
         <v>505</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D176" s="12">
         <f>INT(E176)</f>
@@ -17220,13 +17267,13 @@
         <v>23</v>
       </c>
       <c r="K176" s="27" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O176" t="s">
         <v>40</v>
@@ -17269,13 +17316,13 @@
         <v>87</v>
       </c>
       <c r="K177" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O177" t="s">
         <v>40</v>
@@ -17318,13 +17365,13 @@
         <v>23</v>
       </c>
       <c r="K178" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O178" t="s">
         <v>40</v>
@@ -17367,13 +17414,13 @@
         <v>56</v>
       </c>
       <c r="K179" s="27" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O179" t="s">
         <v>40</v>
@@ -17416,16 +17463,16 @@
         <v>56</v>
       </c>
       <c r="K180" s="27" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N180" s="7" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O180" t="s">
         <v>40</v>
@@ -17468,16 +17515,16 @@
         <v>87</v>
       </c>
       <c r="K181" s="27" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O181" t="s">
         <v>610</v>
@@ -17517,16 +17564,16 @@
         <v>56</v>
       </c>
       <c r="K182" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N182" s="7" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O182" t="s">
         <v>610</v>
@@ -17543,7 +17590,7 @@
         <v>17</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D183" s="12">
         <f>INT(E183)</f>
@@ -17569,16 +17616,16 @@
         <v>35</v>
       </c>
       <c r="K183" s="27" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N183" s="7" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O183" t="s">
         <v>610</v>
@@ -17595,7 +17642,7 @@
         <v>330</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D184" s="12">
         <f>INT(E184)</f>
@@ -17621,16 +17668,16 @@
         <v>56</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N184" s="7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="O184" t="s">
         <v>610</v>
@@ -17647,7 +17694,7 @@
         <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D185" s="12">
         <f>INT(E185)</f>
@@ -17673,16 +17720,16 @@
         <v>78</v>
       </c>
       <c r="K185" s="27" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N185" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O185" t="s">
         <v>40</v>
@@ -17699,7 +17746,7 @@
         <v>17</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D186" s="12">
         <f>INT(E186)</f>
@@ -17725,22 +17772,22 @@
         <v>23</v>
       </c>
       <c r="K186" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N186" s="7" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O186" t="s">
         <v>40</v>
       </c>
       <c r="P186" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="409.6">
@@ -17777,16 +17824,16 @@
         <v>56</v>
       </c>
       <c r="K187" s="27" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="N187" s="7" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O187" t="s">
         <v>610</v>
@@ -17829,16 +17876,16 @@
         <v>23</v>
       </c>
       <c r="K188" s="27" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N188" s="7" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="O188" t="s">
         <v>40</v>
@@ -17881,19 +17928,19 @@
         <v>78</v>
       </c>
       <c r="K189" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O189" t="s">
         <v>40</v>
       </c>
       <c r="P189" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="409.6">
@@ -17930,16 +17977,16 @@
         <v>78</v>
       </c>
       <c r="K190" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N190" s="7" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="O190" t="s">
         <v>40</v>
@@ -17982,16 +18029,16 @@
         <v>35</v>
       </c>
       <c r="K191" s="27" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N191" s="7" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O191" t="s">
         <v>40</v>
@@ -18034,22 +18081,22 @@
         <v>87</v>
       </c>
       <c r="K192" s="27" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N192" s="7" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="O192" t="s">
         <v>610</v>
       </c>
       <c r="P192" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="396.75">
@@ -18057,7 +18104,7 @@
         <v>72</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D193" s="12">
         <f>INT(E193)</f>
@@ -18083,13 +18130,13 @@
         <v>78</v>
       </c>
       <c r="K193" s="27" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="O193" t="s">
         <v>40</v>
@@ -18132,16 +18179,16 @@
         <v>56</v>
       </c>
       <c r="K194" s="27" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="N194" s="7" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O194" t="s">
         <v>610</v>
@@ -18184,16 +18231,16 @@
         <v>87</v>
       </c>
       <c r="K195" s="27" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="N195" s="7" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O195" t="s">
         <v>610</v>
@@ -18236,16 +18283,16 @@
         <v>56</v>
       </c>
       <c r="K196" s="27" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="N196" s="7" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="O196" t="s">
         <v>610</v>
@@ -18288,16 +18335,16 @@
         <v>56</v>
       </c>
       <c r="K197" s="27" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="N197" s="7" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O197" t="s">
         <v>40</v>
@@ -18340,13 +18387,13 @@
         <v>56</v>
       </c>
       <c r="K198" s="27" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O198" t="s">
         <v>610</v>
@@ -18389,19 +18436,19 @@
         <v>56</v>
       </c>
       <c r="K199" s="27" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O199" t="s">
         <v>40</v>
       </c>
       <c r="P199" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="409.6">
@@ -18438,16 +18485,16 @@
         <v>23</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="N200" s="7" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="O200" t="s">
         <v>40</v>
@@ -18461,7 +18508,7 @@
         <v>72</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D201" s="12">
         <f>INT(E201)</f>
@@ -18487,22 +18534,22 @@
         <v>56</v>
       </c>
       <c r="K201" s="27" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="N201" s="7" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="O201" t="s">
         <v>610</v>
       </c>
       <c r="P201" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="409.6">
@@ -18539,16 +18586,16 @@
         <v>56</v>
       </c>
       <c r="K202" s="29" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="N202" s="7" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="O202" t="s">
         <v>40</v>
@@ -18591,13 +18638,13 @@
         <v>78</v>
       </c>
       <c r="K203" s="29" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O203" t="s">
         <v>40</v>
@@ -18640,16 +18687,16 @@
         <v>56</v>
       </c>
       <c r="K204" s="29" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="N204" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="O204" t="s">
         <v>40</v>
@@ -18663,7 +18710,7 @@
         <v>72</v>
       </c>
       <c r="B205" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D205" s="12">
         <f>INT(E205)</f>
@@ -18689,13 +18736,13 @@
         <v>35</v>
       </c>
       <c r="K205" s="29" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="N205"/>
       <c r="O205" t="s">
@@ -18713,7 +18760,7 @@
         <v>17</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D206" s="12">
         <f>INT(E206)</f>
@@ -18739,16 +18786,16 @@
         <v>56</v>
       </c>
       <c r="K206" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N206" s="7" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O206" t="s">
         <v>610</v>
@@ -18791,16 +18838,16 @@
         <v>56</v>
       </c>
       <c r="K207" s="29" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="N207" s="7" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="O207" t="s">
         <v>33</v>
@@ -18843,16 +18890,16 @@
         <v>78</v>
       </c>
       <c r="K208" s="29" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N208" s="7" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="O208" t="s">
         <v>610</v>
@@ -18895,13 +18942,13 @@
         <v>23</v>
       </c>
       <c r="K209" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="O209" t="s">
         <v>40</v>
@@ -18944,13 +18991,13 @@
         <v>56</v>
       </c>
       <c r="K210" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="O210" t="s">
         <v>40</v>
@@ -18993,16 +19040,16 @@
         <v>87</v>
       </c>
       <c r="K211" s="29" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="O211" t="s">
         <v>40</v>
@@ -19045,16 +19092,16 @@
         <v>35</v>
       </c>
       <c r="K212" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N212" s="7" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="O212" t="s">
         <v>40</v>
@@ -19097,16 +19144,16 @@
         <v>23</v>
       </c>
       <c r="K213" s="29" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="N213" s="7" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="O213" t="s">
         <v>40</v>
@@ -19149,16 +19196,16 @@
         <v>87</v>
       </c>
       <c r="K214" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="N214" s="7" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="O214" t="s">
         <v>40</v>
@@ -19172,7 +19219,7 @@
         <v>72</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C215" t="s">
         <v>545</v>
@@ -19201,13 +19248,13 @@
         <v>23</v>
       </c>
       <c r="K215" s="30" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="O215" t="s">
         <v>33</v>
@@ -19250,13 +19297,13 @@
         <v>78</v>
       </c>
       <c r="K216" s="30" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="O216" t="s">
         <v>40</v>
@@ -19273,7 +19320,7 @@
         <v>17</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D217" s="12">
         <f>INT(E217)</f>
@@ -19299,16 +19346,16 @@
         <v>56</v>
       </c>
       <c r="K217" s="30" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="N217" s="7" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="O217" t="s">
         <v>40</v>
@@ -19351,16 +19398,16 @@
         <v>56</v>
       </c>
       <c r="K218" s="30" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="N218" s="7" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="O218" t="s">
         <v>610</v>
@@ -19377,7 +19424,7 @@
         <v>17</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D219" s="12">
         <f>INT(E219)</f>
@@ -19403,19 +19450,19 @@
         <v>56</v>
       </c>
       <c r="K219" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="O219" t="s">
         <v>40</v>
       </c>
       <c r="P219" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="321">
@@ -19426,7 +19473,7 @@
         <v>17</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D220" s="12">
         <f>INT(E220)</f>
@@ -19452,16 +19499,16 @@
         <v>56</v>
       </c>
       <c r="K220" s="27" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="N220" s="7" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O220" t="s">
         <v>40</v>
@@ -19504,16 +19551,16 @@
         <v>35</v>
       </c>
       <c r="K221" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="M221" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="N221" s="7" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="O221" t="s">
         <v>40</v>
@@ -19553,13 +19600,13 @@
         <v>87</v>
       </c>
       <c r="K222" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="O222" t="s">
         <v>40</v>
@@ -19576,7 +19623,7 @@
         <v>17</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D223" s="12">
         <f>INT(E223)</f>
@@ -19602,16 +19649,16 @@
         <v>78</v>
       </c>
       <c r="K223" s="27" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="M223" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="N223" s="7" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="O223" t="s">
         <v>40</v>
@@ -19654,16 +19701,16 @@
         <v>56</v>
       </c>
       <c r="K224" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="N224" s="7" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="O224" t="s">
         <v>40</v>
@@ -19706,16 +19753,16 @@
         <v>35</v>
       </c>
       <c r="K225" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="N225" s="7" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="O225" t="s">
         <v>610</v>
@@ -19758,16 +19805,16 @@
         <v>78</v>
       </c>
       <c r="K226" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="N226" s="7" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="O226" t="s">
         <v>40</v>
@@ -19784,7 +19831,7 @@
         <v>73</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D227" s="12">
         <f>INT(E227)</f>
@@ -19810,16 +19857,16 @@
         <v>78</v>
       </c>
       <c r="K227" s="27" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="N227" s="7" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="O227" t="s">
         <v>33</v>
@@ -19862,16 +19909,16 @@
         <v>56</v>
       </c>
       <c r="K228" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="N228" s="7" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="O228" t="s">
         <v>40</v>
@@ -19914,16 +19961,16 @@
         <v>78</v>
       </c>
       <c r="K229" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="N229" s="7" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="O229" t="s">
         <v>40</v>
@@ -19966,16 +20013,16 @@
         <v>78</v>
       </c>
       <c r="K230" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="N230" s="7" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="O230" t="s">
         <v>40</v>
@@ -20018,16 +20065,16 @@
         <v>78</v>
       </c>
       <c r="K231" s="27" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="N231" s="7" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="O231" t="s">
         <v>610</v>
@@ -20070,16 +20117,16 @@
         <v>56</v>
       </c>
       <c r="K232" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="N232" s="7" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="O232" t="s">
         <v>610</v>
@@ -20122,16 +20169,16 @@
         <v>23</v>
       </c>
       <c r="K233" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="N233" s="7" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="O233" t="s">
         <v>40</v>
@@ -20148,7 +20195,7 @@
         <v>17</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D234" s="12">
         <f>INT(E234)</f>
@@ -20174,16 +20221,16 @@
         <v>56</v>
       </c>
       <c r="K234" s="27" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="N234" s="7" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O234" t="s">
         <v>610</v>
@@ -20226,16 +20273,16 @@
         <v>35</v>
       </c>
       <c r="K235" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="N235" s="7" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="O235" t="s">
         <v>40</v>
@@ -20249,10 +20296,10 @@
         <v>72</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D236" s="12">
         <f>INT(E236)</f>
@@ -20278,16 +20325,16 @@
         <v>56</v>
       </c>
       <c r="K236" s="27" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="N236" s="7" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="O236" t="s">
         <v>33</v>
@@ -20330,16 +20377,16 @@
         <v>56</v>
       </c>
       <c r="K237" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N237" s="7" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="O237" t="s">
         <v>610</v>
@@ -20353,10 +20400,10 @@
         <v>72</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D238" s="12">
         <f>INT(E238)</f>
@@ -20382,16 +20429,16 @@
         <v>78</v>
       </c>
       <c r="K238" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="N238" s="7" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="O238" t="s">
         <v>33</v>
@@ -20434,13 +20481,13 @@
         <v>56</v>
       </c>
       <c r="K239" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="O239" t="s">
         <v>40</v>
@@ -20457,7 +20504,7 @@
         <v>17</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D240" s="12">
         <f>INT(E240)</f>
@@ -20483,13 +20530,13 @@
         <v>56</v>
       </c>
       <c r="K240" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="O240" t="s">
         <v>40</v>
@@ -20506,7 +20553,7 @@
         <v>330</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D241" s="12">
         <f>INT(E241)</f>
@@ -20532,13 +20579,13 @@
         <v>56</v>
       </c>
       <c r="K241" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="O241" t="s">
         <v>40</v>
@@ -20555,7 +20602,7 @@
         <v>17</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D242" s="12">
         <f>INT(E242)</f>
@@ -20581,16 +20628,16 @@
         <v>56</v>
       </c>
       <c r="K242" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="N242" s="7" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="O242" t="s">
         <v>40</v>
@@ -20607,7 +20654,7 @@
         <v>73</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D243" s="12">
         <f>INT(E243)</f>
@@ -20632,17 +20679,17 @@
       <c r="J243" t="s">
         <v>78</v>
       </c>
-      <c r="K243" t="s">
-        <v>1247</v>
+      <c r="K243" s="27" t="s">
+        <v>1248</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="N243" s="7" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="O243" t="s">
         <v>33</v>
@@ -20659,7 +20706,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D244" s="12">
         <f>INT(E244)</f>
@@ -20684,17 +20731,17 @@
       <c r="J244" t="s">
         <v>56</v>
       </c>
-      <c r="K244" t="s">
-        <v>1252</v>
+      <c r="K244" s="27" t="s">
+        <v>1253</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="N244" s="7" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="O244" t="s">
         <v>610</v>
@@ -20708,7 +20755,7 @@
         <v>29</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D245" s="12">
         <f>INT(E245)</f>
@@ -20733,23 +20780,23 @@
       <c r="J245" t="s">
         <v>56</v>
       </c>
-      <c r="K245" t="s">
-        <v>1257</v>
+      <c r="K245" s="27" t="s">
+        <v>1258</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="N245" s="7" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="O245" t="s">
         <v>610</v>
       </c>
       <c r="P245" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="409.6">
@@ -20785,17 +20832,17 @@
       <c r="J246" t="s">
         <v>56</v>
       </c>
-      <c r="K246" t="s">
-        <v>1262</v>
+      <c r="K246" s="27" t="s">
+        <v>1263</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="N246" s="7" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="O246" t="s">
         <v>610</v>
@@ -20838,16 +20885,16 @@
         <v>87</v>
       </c>
       <c r="K247" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="N247" s="7" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="O247" t="s">
         <v>40</v>
@@ -20886,14 +20933,17 @@
       <c r="J248" t="s">
         <v>87</v>
       </c>
-      <c r="K248" t="s">
-        <v>1270</v>
+      <c r="K248" s="27" t="s">
+        <v>1271</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>1272</v>
+        <v>1273</v>
+      </c>
+      <c r="O248" t="s">
+        <v>40</v>
       </c>
       <c r="P248" t="s">
         <v>253</v>
@@ -20907,7 +20957,7 @@
         <v>17</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D249" s="12">
         <f>INT(E249)</f>
@@ -20932,14 +20982,17 @@
       <c r="J249" t="s">
         <v>23</v>
       </c>
-      <c r="K249" t="s">
-        <v>1274</v>
+      <c r="K249" s="27" t="s">
+        <v>1275</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
+      </c>
+      <c r="O249" t="s">
+        <v>40</v>
       </c>
       <c r="P249" t="s">
         <v>253</v>
@@ -20975,14 +21028,17 @@
       <c r="J250" t="s">
         <v>87</v>
       </c>
-      <c r="K250" t="s">
-        <v>1277</v>
+      <c r="K250" s="27" t="s">
+        <v>1278</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>1279</v>
+        <v>1280</v>
+      </c>
+      <c r="O250" t="s">
+        <v>40</v>
       </c>
       <c r="P250" t="s">
         <v>253</v>
@@ -21018,14 +21074,17 @@
       <c r="J251" t="s">
         <v>87</v>
       </c>
-      <c r="K251" t="s">
-        <v>1280</v>
+      <c r="K251" s="27" t="s">
+        <v>1281</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>1282</v>
+        <v>1283</v>
+      </c>
+      <c r="O251" t="s">
+        <v>40</v>
       </c>
       <c r="P251" t="s">
         <v>253</v>
@@ -21064,17 +21123,20 @@
       <c r="J252" t="s">
         <v>87</v>
       </c>
-      <c r="K252" t="s">
-        <v>1283</v>
+      <c r="K252" s="27" t="s">
+        <v>1284</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>1285</v>
+        <v>1286</v>
+      </c>
+      <c r="O252" t="s">
+        <v>40</v>
       </c>
       <c r="P252" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="409.6">
@@ -21110,17 +21172,20 @@
       <c r="J253" t="s">
         <v>23</v>
       </c>
-      <c r="K253" t="s">
-        <v>1286</v>
+      <c r="K253" s="27" t="s">
+        <v>1287</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>1288</v>
+        <v>1289</v>
+      </c>
+      <c r="O253" t="s">
+        <v>40</v>
       </c>
       <c r="P253" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="409.6">
@@ -21156,17 +21221,20 @@
       <c r="J254" t="s">
         <v>23</v>
       </c>
-      <c r="K254" t="s">
-        <v>1289</v>
+      <c r="K254" s="27" t="s">
+        <v>1290</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="N254" s="7" t="s">
-        <v>1292</v>
+        <v>1293</v>
+      </c>
+      <c r="O254" t="s">
+        <v>610</v>
       </c>
       <c r="P254" t="s">
         <v>490</v>
@@ -21180,7 +21248,7 @@
         <v>73</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D255" s="12">
         <f>INT(E255)</f>
@@ -21205,17 +21273,20 @@
       <c r="J255" t="s">
         <v>78</v>
       </c>
-      <c r="K255" t="s">
-        <v>1293</v>
+      <c r="K255" s="27" t="s">
+        <v>1294</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="N255" s="7" t="s">
-        <v>1296</v>
+        <v>1297</v>
+      </c>
+      <c r="O255" t="s">
+        <v>40</v>
       </c>
       <c r="P255" t="s">
         <v>82</v>
@@ -21254,20 +21325,23 @@
       <c r="J256" t="s">
         <v>87</v>
       </c>
-      <c r="K256" t="s">
-        <v>1297</v>
+      <c r="K256" s="27" t="s">
+        <v>1298</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="N256" s="7" t="s">
-        <v>1300</v>
+        <v>1301</v>
+      </c>
+      <c r="O256" t="s">
+        <v>610</v>
       </c>
       <c r="P256" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="409.6">
@@ -21278,7 +21352,7 @@
         <v>17</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D257" s="12">
         <f>INT(E257)</f>
@@ -21303,322 +21377,485 @@
       <c r="J257" t="s">
         <v>87</v>
       </c>
-      <c r="K257" t="s">
-        <v>1303</v>
+      <c r="K257" s="27" t="s">
+        <v>1304</v>
       </c>
       <c r="L257" s="7" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="N257" s="7" t="s">
-        <v>1306</v>
+        <v>1307</v>
+      </c>
+      <c r="O257" t="s">
+        <v>610</v>
       </c>
       <c r="P257" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="409.6">
-      <c r="A258" s="31" t="s">
-        <v>16</v>
+      <c r="A258" t="s">
+        <v>72</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>30</v>
+        <v>1308</v>
+      </c>
+      <c r="C258" t="s">
+        <v>545</v>
       </c>
       <c r="D258" s="12">
-        <f t="shared" ref="D258:D263" si="0">INT(E258)</f>
-        <v>45973</v>
-      </c>
-      <c r="E258" s="32">
-        <v>45973.36824074074</v>
+        <f>INT(E258)</f>
+        <v>45971</v>
+      </c>
+      <c r="E258" s="6">
+        <v>45971.8203125</v>
       </c>
       <c r="F258" s="12">
-        <f t="shared" ref="F258:F263" si="1">INT(G258)</f>
-        <v>45972</v>
-      </c>
-      <c r="G258" s="32">
-        <v>45972.740532407406</v>
-      </c>
-      <c r="H258" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I258" s="31" t="s">
+        <f>INT(G258)</f>
+        <v>45971</v>
+      </c>
+      <c r="G258" s="6">
+        <v>45971.816180555557</v>
+      </c>
+      <c r="H258" t="s">
+        <v>21</v>
+      </c>
+      <c r="I258" t="s">
         <v>46</v>
       </c>
-      <c r="J258" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K258" s="31" t="s">
-        <v>1307</v>
-      </c>
-      <c r="L258" s="7" t="s">
-        <v>1308</v>
+      <c r="J258" t="s">
+        <v>78</v>
+      </c>
+      <c r="K258" s="27" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>1310</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="N258" s="33" t="s">
-        <v>1310</v>
+        <v>1311</v>
+      </c>
+      <c r="N258" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="O258" t="s">
+        <v>40</v>
       </c>
       <c r="P258" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="409.6">
-      <c r="A259" s="31" t="s">
-        <v>16</v>
+      <c r="A259" t="s">
+        <v>29</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C259" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D259" s="12">
+        <f>INT(E259)</f>
+        <v>45971</v>
+      </c>
+      <c r="E259" s="6">
+        <v>45971.690891203703</v>
+      </c>
+      <c r="F259" s="12">
+        <f>INT(G259)</f>
+        <v>45953</v>
+      </c>
+      <c r="G259" s="6">
+        <v>45953.375254629631</v>
+      </c>
+      <c r="H259" t="s">
+        <v>77</v>
+      </c>
+      <c r="I259" t="s">
+        <v>46</v>
+      </c>
+      <c r="J259" t="s">
+        <v>78</v>
+      </c>
+      <c r="K259" s="27" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N259" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="O259" t="s">
+        <v>40</v>
+      </c>
+      <c r="P259" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" ht="409.6">
+      <c r="A260" t="s">
+        <v>72</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D260" s="12">
+        <f>INT(E260)</f>
+        <v>45972</v>
+      </c>
+      <c r="E260" s="6">
+        <v>45972.797106481485</v>
+      </c>
+      <c r="F260" s="12">
+        <f>INT(G260)</f>
+        <v>45838</v>
+      </c>
+      <c r="G260" s="6">
+        <v>45838.496423611112</v>
+      </c>
+      <c r="H260" t="s">
+        <v>33</v>
+      </c>
+      <c r="I260" t="s">
+        <v>46</v>
+      </c>
+      <c r="J260" t="s">
+        <v>35</v>
+      </c>
+      <c r="K260" s="27" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N260" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="O260" t="s">
+        <v>610</v>
+      </c>
+      <c r="P260" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" ht="409.6">
+      <c r="A261" t="s">
+        <v>16</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D261" s="12">
+        <f>INT(E261)</f>
+        <v>45973</v>
+      </c>
+      <c r="E261" s="6">
+        <v>45973.36824074074</v>
+      </c>
+      <c r="F261" s="12">
+        <f>INT(G261)</f>
+        <v>45972</v>
+      </c>
+      <c r="G261" s="6">
+        <v>45972.740532407406</v>
+      </c>
+      <c r="H261" t="s">
+        <v>33</v>
+      </c>
+      <c r="I261" t="s">
+        <v>46</v>
+      </c>
+      <c r="J261" t="s">
+        <v>56</v>
+      </c>
+      <c r="K261" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L261" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="N261" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="O261" t="s">
+        <v>40</v>
+      </c>
+      <c r="P261" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" ht="409.6">
+      <c r="A262" t="s">
+        <v>16</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D259" s="12">
+      <c r="D262" s="12">
+        <f>INT(E262)</f>
+        <v>45973</v>
+      </c>
+      <c r="E262" s="6">
+        <v>45973.348946759259</v>
+      </c>
+      <c r="F262" s="12">
+        <f>INT(G262)</f>
+        <v>45972</v>
+      </c>
+      <c r="G262" s="6">
+        <v>45972.745486111111</v>
+      </c>
+      <c r="H262" t="s">
+        <v>33</v>
+      </c>
+      <c r="I262" t="s">
+        <v>66</v>
+      </c>
+      <c r="J262" t="s">
+        <v>56</v>
+      </c>
+      <c r="K262" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L262" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N262" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="O262" t="s">
+        <v>40</v>
+      </c>
+      <c r="P262" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" ht="409.6">
+      <c r="A263" t="s">
+        <v>72</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D263" s="12">
+        <f>INT(E263)</f>
+        <v>45973</v>
+      </c>
+      <c r="E263" s="6">
+        <v>45973.296932870369</v>
+      </c>
+      <c r="F263" s="12">
+        <f>INT(G263)</f>
+        <v>45972</v>
+      </c>
+      <c r="G263" s="6">
+        <v>45972.637777777774</v>
+      </c>
+      <c r="H263" t="s">
+        <v>33</v>
+      </c>
+      <c r="I263" t="s">
+        <v>46</v>
+      </c>
+      <c r="J263" t="s">
+        <v>56</v>
+      </c>
+      <c r="K263" s="27" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="N263" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="O263" t="s">
+        <v>610</v>
+      </c>
+      <c r="P263" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" ht="409.6">
+      <c r="A264" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C264" t="s">
+        <v>545</v>
+      </c>
+      <c r="D264" s="12">
+        <f t="shared" ref="D264:D266" si="0">INT(E264)</f>
+        <v>45973</v>
+      </c>
+      <c r="E264" s="32">
+        <v>45973.971909722219</v>
+      </c>
+      <c r="F264" s="12">
+        <f t="shared" ref="F264:F266" si="1">INT(G264)</f>
+        <v>45973</v>
+      </c>
+      <c r="G264" s="32">
+        <v>45973.941099537034</v>
+      </c>
+      <c r="H264" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I264" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J264" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K264" s="31" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N264" s="33" t="s">
+        <v>1336</v>
+      </c>
+      <c r="P264" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" ht="409.6">
+      <c r="A265" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D265" s="12">
         <f t="shared" si="0"/>
         <v>45973</v>
       </c>
-      <c r="E259" s="32">
-        <v>45973.348946759259</v>
-      </c>
-      <c r="F259" s="12">
+      <c r="E265" s="32">
+        <v>45973.503333333334</v>
+      </c>
+      <c r="F265" s="12">
         <f t="shared" si="1"/>
         <v>45972</v>
       </c>
-      <c r="G259" s="32">
-        <v>45972.745486111111</v>
-      </c>
-      <c r="H259" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I259" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J259" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K259" s="31" t="s">
-        <v>1311</v>
-      </c>
-      <c r="L259" s="7" t="s">
-        <v>1312</v>
-      </c>
-      <c r="M259" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="N259" s="33" t="s">
-        <v>1314</v>
-      </c>
-      <c r="P259" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" ht="409.6">
-      <c r="A260" s="31" t="s">
+      <c r="G265" s="32">
+        <v>45972.753240740742</v>
+      </c>
+      <c r="H265" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I265" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J265" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K265" s="31" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N265" s="33" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P265" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" ht="409.6">
+      <c r="A266" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B260" s="7" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D260" s="12">
+      <c r="B266" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D266" s="12">
         <f t="shared" si="0"/>
         <v>45973</v>
       </c>
-      <c r="E260" s="32">
-        <v>45973.296932870369</v>
-      </c>
-      <c r="F260" s="12">
+      <c r="E266" s="32">
+        <v>45973.503067129626</v>
+      </c>
+      <c r="F266" s="12">
         <f t="shared" si="1"/>
         <v>45972</v>
       </c>
-      <c r="G260" s="32">
-        <v>45972.637777777774</v>
-      </c>
-      <c r="H260" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I260" s="31" t="s">
+      <c r="G266" s="32">
+        <v>45972.750451388885</v>
+      </c>
+      <c r="H266" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I266" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="J260" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K260" s="31" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L260" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="M260" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="N260" s="33" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P260" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" ht="409.6">
-      <c r="A261" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D261" s="12">
-        <f t="shared" si="0"/>
-        <v>45972</v>
-      </c>
-      <c r="E261" s="32">
-        <v>45972.797106481485</v>
-      </c>
-      <c r="F261" s="12">
-        <f t="shared" si="1"/>
-        <v>45838</v>
-      </c>
-      <c r="G261" s="32">
-        <v>45838.496423611112</v>
-      </c>
-      <c r="H261" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I261" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J261" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K261" s="31" t="s">
-        <v>1320</v>
-      </c>
-      <c r="L261" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="M261" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="N261" s="33" t="s">
-        <v>1323</v>
-      </c>
-      <c r="P261" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" ht="409.6">
-      <c r="A262" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C262" t="s">
-        <v>545</v>
-      </c>
-      <c r="D262" s="12">
-        <f t="shared" si="0"/>
-        <v>45971</v>
-      </c>
-      <c r="E262" s="32">
-        <v>45971.8203125</v>
-      </c>
-      <c r="F262" s="12">
-        <f t="shared" si="1"/>
-        <v>45971</v>
-      </c>
-      <c r="G262" s="32">
-        <v>45971.816180555557</v>
-      </c>
-      <c r="H262" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I262" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J262" s="31" t="s">
+      <c r="J266" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K262" s="31" t="s">
-        <v>1325</v>
-      </c>
-      <c r="L262" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="M262" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="N262" s="33" t="s">
-        <v>1328</v>
-      </c>
-      <c r="P262" t="s">
+      <c r="K266" s="31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="N266" s="33" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P266" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" ht="409.6">
-      <c r="A263" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D263" s="12">
-        <f t="shared" si="0"/>
-        <v>45971</v>
-      </c>
-      <c r="E263" s="32">
-        <v>45971.690891203703</v>
-      </c>
-      <c r="F263" s="12">
-        <f t="shared" si="1"/>
-        <v>45953</v>
-      </c>
-      <c r="G263" s="32">
-        <v>45953.375254629631</v>
-      </c>
-      <c r="H263" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I263" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J263" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K263" s="31" t="s">
-        <v>1329</v>
-      </c>
-      <c r="L263" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="M263" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="N263" s="33" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P263" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P263" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="COVIG"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P258">
-      <sortCondition ref="D1:D247"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P263">
+      <sortCondition ref="D1:D263"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -21638,7 +21875,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="B1" s="9"/>
     </row>
